--- a/SuiattleFieldData_Combined20182019.xlsx
+++ b/SuiattleFieldData_Combined20182019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wwu2-my.sharepoint.com/personal/longrea_wwu_edu/Documents/Thesis/1_Code/Suiattle Code v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{6C97719E-685B-4D08-897E-9C2C4109043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{557988E9-F770-45DE-AD06-2F2AE546C66E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{6C97719E-685B-4D08-897E-9C2C4109043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{853976D0-A782-42DA-882E-FFA058EBF31B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -639,6 +639,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1954,7 +1958,7 @@
   <dimension ref="A1:L2877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -70550,8 +70554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F421E-D3F5-4AE3-8063-BE10119FB04C}">
   <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70594,7 +70598,9 @@
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -70609,7 +70615,9 @@
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -70624,7 +70632,9 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -70656,7 +70666,9 @@
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -70671,7 +70683,9 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -70720,7 +70734,9 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -70735,7 +70751,9 @@
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -70767,7 +70785,9 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -70935,7 +70955,9 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -70950,7 +70972,9 @@
       <c r="D24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -71016,7 +71040,9 @@
       <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -71048,7 +71074,9 @@
       <c r="D30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -71097,7 +71125,9 @@
       <c r="D33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -71129,7 +71159,9 @@
       <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -71161,7 +71193,9 @@
       <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -71193,7 +71227,9 @@
       <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -71531,7 +71567,9 @@
       <c r="D59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -71699,7 +71737,9 @@
       <c r="D69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -71782,7 +71822,9 @@
       <c r="D74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -71797,7 +71839,9 @@
       <c r="D75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -71812,7 +71856,9 @@
       <c r="D76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -71861,7 +71907,9 @@
       <c r="D79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -71876,7 +71924,9 @@
       <c r="D80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -71891,7 +71941,9 @@
       <c r="D81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -71923,7 +71975,9 @@
       <c r="D83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -71955,7 +72009,9 @@
       <c r="D85" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -71987,7 +72043,9 @@
       <c r="D87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -72002,7 +72060,9 @@
       <c r="D88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -72034,7 +72094,9 @@
       <c r="D90" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -72066,7 +72128,9 @@
       <c r="D92" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -72098,7 +72162,9 @@
       <c r="D94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -72147,7 +72213,9 @@
       <c r="D97" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -72196,7 +72264,9 @@
       <c r="D100" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -72228,7 +72298,9 @@
       <c r="D102" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -72260,7 +72332,9 @@
       <c r="D104" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -72275,7 +72349,9 @@
       <c r="D105" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -72307,7 +72383,9 @@
       <c r="D107" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -72339,7 +72417,9 @@
       <c r="D109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -72405,7 +72485,9 @@
       <c r="D113" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -72437,7 +72519,9 @@
       <c r="D115" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -72486,7 +72570,9 @@
       <c r="D118" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -72501,7 +72587,9 @@
       <c r="D119" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -72516,7 +72604,9 @@
       <c r="D120" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -72548,7 +72638,9 @@
       <c r="D122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -72563,7 +72655,9 @@
       <c r="D123" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -72595,7 +72689,9 @@
       <c r="D125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E125" s="2"/>
+      <c r="E125" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -72695,7 +72791,9 @@
       <c r="D131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -72710,7 +72808,9 @@
       <c r="D132" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -72725,7 +72825,9 @@
       <c r="D133" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -72740,7 +72842,9 @@
       <c r="D134" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -72823,7 +72927,9 @@
       <c r="D139" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -72872,7 +72978,9 @@
       <c r="D142" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -72904,7 +73012,9 @@
       <c r="D144" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -72936,7 +73046,9 @@
       <c r="D146" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -72985,7 +73097,9 @@
       <c r="D149" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E149" s="2"/>
+      <c r="E149" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -73017,7 +73131,9 @@
       <c r="D151" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E151" s="2"/>
+      <c r="E151" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -73066,7 +73182,9 @@
       <c r="D154" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -73115,7 +73233,9 @@
       <c r="D157" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E157" s="2"/>
+      <c r="E157" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -73130,7 +73250,9 @@
       <c r="D158" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="E158" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -73179,7 +73301,9 @@
       <c r="D161" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -73194,7 +73318,9 @@
       <c r="D162" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -73209,7 +73335,9 @@
       <c r="D163" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="2"/>
+      <c r="E163" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -73327,7 +73455,7 @@
         <v>101</v>
       </c>
       <c r="E170" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -73395,7 +73523,7 @@
         <v>101</v>
       </c>
       <c r="E174" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -73412,7 +73540,7 @@
         <v>101</v>
       </c>
       <c r="E175" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -73463,7 +73591,7 @@
         <v>101</v>
       </c>
       <c r="E178" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -73514,7 +73642,7 @@
         <v>101</v>
       </c>
       <c r="E181" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -73548,7 +73676,7 @@
         <v>101</v>
       </c>
       <c r="E183" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -73616,7 +73744,7 @@
         <v>101</v>
       </c>
       <c r="E187" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -73667,7 +73795,7 @@
         <v>101</v>
       </c>
       <c r="E190" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -73837,7 +73965,7 @@
         <v>101</v>
       </c>
       <c r="E200" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -74075,7 +74203,7 @@
         <v>101</v>
       </c>
       <c r="E214" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -74398,7 +74526,7 @@
         <v>101</v>
       </c>
       <c r="E233" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -74636,7 +74764,7 @@
         <v>101</v>
       </c>
       <c r="E247" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -74857,7 +74985,7 @@
         <v>101</v>
       </c>
       <c r="E260" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -75265,7 +75393,7 @@
         <v>101</v>
       </c>
       <c r="E284" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -75299,7 +75427,7 @@
         <v>101</v>
       </c>
       <c r="E286" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -75469,7 +75597,7 @@
         <v>101</v>
       </c>
       <c r="E296" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -76030,7 +76158,7 @@
         <v>101</v>
       </c>
       <c r="E329" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -76654,7 +76782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81DE45-3451-4C44-9BFD-6EA25E8CBBCB}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
